--- a/Avg.xlsx
+++ b/Avg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Tickets\!XAF\CriteriaOperator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\CriteriaOperators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5A3DAC-D37E-495C-9454-BF41C477449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90489F3-35BA-4311-B8D1-C8060DC32657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A31457D3-7FC6-45E9-9414-CA183DAEB799}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A31457D3-7FC6-45E9-9414-CA183DAEB799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +190,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -216,9 +224,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,18 +544,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A16449E-0B28-4D3E-8736-CAB057F6CD17}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -554,12 +563,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>6</v>
       </c>
@@ -567,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>3</v>
       </c>
@@ -575,7 +584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -583,57 +592,57 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>9</v>
       </c>
@@ -641,7 +650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -649,12 +658,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>6</v>
       </c>
@@ -665,7 +674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>3</v>
       </c>
@@ -676,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>4</v>
       </c>
@@ -687,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
@@ -698,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>19</v>
       </c>
@@ -709,72 +718,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>9</v>
       </c>
@@ -782,7 +791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>26</v>
       </c>
@@ -790,12 +799,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>6</v>
       </c>
@@ -806,12 +815,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>28</v>
       </c>
@@ -819,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>31</v>
       </c>
@@ -827,14 +836,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
         <v>32</v>
@@ -843,7 +852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
         <v>33</v>
@@ -852,12 +861,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>34</v>
       </c>
@@ -865,7 +874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>35</v>
       </c>
@@ -873,14 +882,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
         <v>36</v>
@@ -889,7 +898,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
         <v>37</v>
@@ -898,72 +907,72 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>45</v>
       </c>

--- a/Avg.xlsx
+++ b/Avg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\CriteriaOperators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90489F3-35BA-4311-B8D1-C8060DC32657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D139971-7613-4A83-AE58-58EC9FDE255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A31457D3-7FC6-45E9-9414-CA183DAEB799}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A31457D3-7FC6-45E9-9414-CA183DAEB799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,11 +544,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A16449E-0B28-4D3E-8736-CAB057F6CD17}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="P69" sqref="P69"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
